--- a/Wind_store_pool.xlsx
+++ b/Wind_store_pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meron/PycharmProjects/5250Pjt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294C6CF7-E36B-D344-9513-DFE77B331083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303D7AD-36F2-5444-80B0-FE73179E7ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8440" yWindow="500" windowWidth="25160" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wind信息技术" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1292">
   <si>
     <t>证券代码</t>
   </si>
@@ -76,12 +76,6 @@
     <t>中国长城</t>
   </si>
   <si>
-    <t>000070.SZ</t>
-  </si>
-  <si>
-    <t>特发信息</t>
-  </si>
-  <si>
     <t>000100.SZ</t>
   </si>
   <si>
@@ -118,12 +112,6 @@
     <t>*ST华映</t>
   </si>
   <si>
-    <t>000555.SZ</t>
-  </si>
-  <si>
-    <t>神州信息</t>
-  </si>
-  <si>
     <t>000561.SZ</t>
   </si>
   <si>
@@ -154,12 +142,6 @@
     <t>*ST天夏</t>
   </si>
   <si>
-    <t>000670.SZ</t>
-  </si>
-  <si>
-    <t>*ST盈方</t>
-  </si>
-  <si>
     <t>000676.SZ</t>
   </si>
   <si>
@@ -1282,102 +1264,6 @@
     <t>科安达</t>
   </si>
   <si>
-    <t>002976.SZ</t>
-  </si>
-  <si>
-    <t>瑞玛工业</t>
-  </si>
-  <si>
-    <t>002977.SZ</t>
-  </si>
-  <si>
-    <t>天箭科技</t>
-  </si>
-  <si>
-    <t>002981.SZ</t>
-  </si>
-  <si>
-    <t>朝阳科技</t>
-  </si>
-  <si>
-    <t>002983.SZ</t>
-  </si>
-  <si>
-    <t>芯瑞达</t>
-  </si>
-  <si>
-    <t>002987.SZ</t>
-  </si>
-  <si>
-    <t>京北方</t>
-  </si>
-  <si>
-    <t>002990.SZ</t>
-  </si>
-  <si>
-    <t>盛视科技</t>
-  </si>
-  <si>
-    <t>002992.SZ</t>
-  </si>
-  <si>
-    <t>宝明科技</t>
-  </si>
-  <si>
-    <t>002993.SZ</t>
-  </si>
-  <si>
-    <t>奥海科技</t>
-  </si>
-  <si>
-    <t>002995.SZ</t>
-  </si>
-  <si>
-    <t>天地在线</t>
-  </si>
-  <si>
-    <t>003007.SZ</t>
-  </si>
-  <si>
-    <t>直真科技</t>
-  </si>
-  <si>
-    <t>003015.SZ</t>
-  </si>
-  <si>
-    <t>日久光电</t>
-  </si>
-  <si>
-    <t>200020.SZ</t>
-  </si>
-  <si>
-    <t>深华发B</t>
-  </si>
-  <si>
-    <t>200045.SZ</t>
-  </si>
-  <si>
-    <t>深纺织B</t>
-  </si>
-  <si>
-    <t>200413.SZ</t>
-  </si>
-  <si>
-    <t>东旭B</t>
-  </si>
-  <si>
-    <t>200468.SZ</t>
-  </si>
-  <si>
-    <t>宁通信B</t>
-  </si>
-  <si>
-    <t>200725.SZ</t>
-  </si>
-  <si>
-    <t>京东方B</t>
-  </si>
-  <si>
     <t>300002.SZ</t>
   </si>
   <si>
@@ -3046,132 +2932,6 @@
     <t>铂科新材</t>
   </si>
   <si>
-    <t>300822.SZ</t>
-  </si>
-  <si>
-    <t>贝仕达克</t>
-  </si>
-  <si>
-    <t>300830.SZ</t>
-  </si>
-  <si>
-    <t>金现代</t>
-  </si>
-  <si>
-    <t>300831.SZ</t>
-  </si>
-  <si>
-    <t>派瑞股份</t>
-  </si>
-  <si>
-    <t>300835.SZ</t>
-  </si>
-  <si>
-    <t>龙磁科技</t>
-  </si>
-  <si>
-    <t>300842.SZ</t>
-  </si>
-  <si>
-    <t>帝科股份</t>
-  </si>
-  <si>
-    <t>300843.SZ</t>
-  </si>
-  <si>
-    <t>胜蓝股份</t>
-  </si>
-  <si>
-    <t>300845.SZ</t>
-  </si>
-  <si>
-    <t>捷安高科</t>
-  </si>
-  <si>
-    <t>300846.SZ</t>
-  </si>
-  <si>
-    <t>首都在线</t>
-  </si>
-  <si>
-    <t>300847.SZ</t>
-  </si>
-  <si>
-    <t>中船汉光</t>
-  </si>
-  <si>
-    <t>300851.SZ</t>
-  </si>
-  <si>
-    <t>交大思诺</t>
-  </si>
-  <si>
-    <t>300852.SZ</t>
-  </si>
-  <si>
-    <t>四会富仕</t>
-  </si>
-  <si>
-    <t>300857.SZ</t>
-  </si>
-  <si>
-    <t>协创数据</t>
-  </si>
-  <si>
-    <t>300862.SZ</t>
-  </si>
-  <si>
-    <t>蓝盾光电</t>
-  </si>
-  <si>
-    <t>300866.SZ</t>
-  </si>
-  <si>
-    <t>安克创新</t>
-  </si>
-  <si>
-    <t>300870.SZ</t>
-  </si>
-  <si>
-    <t>欧陆通</t>
-  </si>
-  <si>
-    <t>300872.SZ</t>
-  </si>
-  <si>
-    <t>天阳科技</t>
-  </si>
-  <si>
-    <t>300882.SZ</t>
-  </si>
-  <si>
-    <t>万胜智能</t>
-  </si>
-  <si>
-    <t>300895.SZ</t>
-  </si>
-  <si>
-    <t>铜牛信息</t>
-  </si>
-  <si>
-    <t>300897.SZ</t>
-  </si>
-  <si>
-    <t>山科智能</t>
-  </si>
-  <si>
-    <t>300903.SZ</t>
-  </si>
-  <si>
-    <t>C科翔</t>
-  </si>
-  <si>
-    <t>300906.SZ</t>
-  </si>
-  <si>
-    <t>C日月明</t>
-  </si>
-  <si>
     <t>600071.SH</t>
   </si>
   <si>
@@ -3442,12 +3202,6 @@
     <t>*ST工新</t>
   </si>
   <si>
-    <t>600703.SH</t>
-  </si>
-  <si>
-    <t>三安光电</t>
-  </si>
-  <si>
     <t>600707.SH</t>
   </si>
   <si>
@@ -3718,12 +3472,6 @@
     <t>鸿远电子</t>
   </si>
   <si>
-    <t>603290.SH</t>
-  </si>
-  <si>
-    <t>斯达半导</t>
-  </si>
-  <si>
     <t>603322.SH</t>
   </si>
   <si>
@@ -3934,12 +3682,6 @@
     <t>春秋电子</t>
   </si>
   <si>
-    <t>603893.SH</t>
-  </si>
-  <si>
-    <t>瑞芯微</t>
-  </si>
-  <si>
     <t>603918.SH</t>
   </si>
   <si>
@@ -3988,36 +3730,6 @@
     <t>麦迪科技</t>
   </si>
   <si>
-    <t>605058.SH</t>
-  </si>
-  <si>
-    <t>澳弘电子</t>
-  </si>
-  <si>
-    <t>605111.SH</t>
-  </si>
-  <si>
-    <t>新洁能</t>
-  </si>
-  <si>
-    <t>605118.SH</t>
-  </si>
-  <si>
-    <t>力鼎光电</t>
-  </si>
-  <si>
-    <t>605218.SH</t>
-  </si>
-  <si>
-    <t>伟时电子</t>
-  </si>
-  <si>
-    <t>605358.SH</t>
-  </si>
-  <si>
-    <t>立昂微</t>
-  </si>
-  <si>
     <t>688001.SH</t>
   </si>
   <si>
@@ -4030,12 +3742,6 @@
     <t>睿创微纳</t>
   </si>
   <si>
-    <t>688004.SH</t>
-  </si>
-  <si>
-    <t>博汇科技</t>
-  </si>
-  <si>
     <t>688007.SH</t>
   </si>
   <si>
@@ -4084,12 +3790,6 @@
     <t>杰普特</t>
   </si>
   <si>
-    <t>688027.SH</t>
-  </si>
-  <si>
-    <t>国盾量子</t>
-  </si>
-  <si>
     <t>688030.SH</t>
   </si>
   <si>
@@ -4114,36 +3814,12 @@
     <t>当虹科技</t>
   </si>
   <si>
-    <t>688051.SH</t>
-  </si>
-  <si>
-    <t>佳华科技</t>
-  </si>
-  <si>
-    <t>688055.SH</t>
-  </si>
-  <si>
-    <t>龙腾光电</t>
-  </si>
-  <si>
-    <t>688056.SH</t>
-  </si>
-  <si>
-    <t>莱伯泰科</t>
-  </si>
-  <si>
     <t>688058.SH</t>
   </si>
   <si>
     <t>宝兰德</t>
   </si>
   <si>
-    <t>688060.SH</t>
-  </si>
-  <si>
-    <t>云涌科技</t>
-  </si>
-  <si>
     <t>688066.SH</t>
   </si>
   <si>
@@ -4156,54 +3832,18 @@
     <t>龙软科技</t>
   </si>
   <si>
-    <t>688080.SH</t>
-  </si>
-  <si>
-    <t>映翰通</t>
-  </si>
-  <si>
-    <t>688081.SH</t>
-  </si>
-  <si>
-    <t>兴图新科</t>
-  </si>
-  <si>
-    <t>688086.SH</t>
-  </si>
-  <si>
-    <t>紫晶存储</t>
-  </si>
-  <si>
     <t>688088.SH</t>
   </si>
   <si>
     <t>虹软科技</t>
   </si>
   <si>
-    <t>688093.SH</t>
-  </si>
-  <si>
-    <t>世华科技</t>
-  </si>
-  <si>
-    <t>688095.SH</t>
-  </si>
-  <si>
-    <t>福昕软件</t>
-  </si>
-  <si>
     <t>688099.SH</t>
   </si>
   <si>
     <t>晶晨股份</t>
   </si>
   <si>
-    <t>688100.SH</t>
-  </si>
-  <si>
-    <t>威胜信息</t>
-  </si>
-  <si>
     <t>688111.SH</t>
   </si>
   <si>
@@ -4222,132 +3862,30 @@
     <t>聚辰股份</t>
   </si>
   <si>
-    <t>688126.SH</t>
-  </si>
-  <si>
-    <t>沪硅产业-U</t>
-  </si>
-  <si>
-    <t>688127.SH</t>
-  </si>
-  <si>
-    <t>蓝特光学</t>
-  </si>
-  <si>
     <t>688138.SH</t>
   </si>
   <si>
     <t>清溢光电</t>
   </si>
   <si>
-    <t>688158.SH</t>
-  </si>
-  <si>
-    <t>优刻得-W</t>
-  </si>
-  <si>
-    <t>688159.SH</t>
-  </si>
-  <si>
-    <t>有方科技</t>
-  </si>
-  <si>
     <t>688168.SH</t>
   </si>
   <si>
     <t>安博通</t>
   </si>
   <si>
-    <t>688181.SH</t>
-  </si>
-  <si>
-    <t>八亿时空</t>
-  </si>
-  <si>
     <t>688188.SH</t>
   </si>
   <si>
     <t>柏楚电子</t>
   </si>
   <si>
-    <t>688200.SH</t>
-  </si>
-  <si>
-    <t>华峰测控</t>
-  </si>
-  <si>
-    <t>688208.SH</t>
-  </si>
-  <si>
-    <t>道通科技</t>
-  </si>
-  <si>
-    <t>688215.SH</t>
-  </si>
-  <si>
-    <t>瑞晟智能</t>
-  </si>
-  <si>
-    <t>688228.SH</t>
-  </si>
-  <si>
-    <t>开普云</t>
-  </si>
-  <si>
-    <t>688229.SH</t>
-  </si>
-  <si>
-    <t>博睿数据</t>
-  </si>
-  <si>
-    <t>688233.SH</t>
-  </si>
-  <si>
-    <t>神工股份</t>
-  </si>
-  <si>
-    <t>688256.SH</t>
-  </si>
-  <si>
-    <t>寒武纪-U</t>
-  </si>
-  <si>
     <t>688258.SH</t>
   </si>
   <si>
     <t>卓易信息</t>
   </si>
   <si>
-    <t>688286.SH</t>
-  </si>
-  <si>
-    <t>敏芯股份</t>
-  </si>
-  <si>
-    <t>688312.SH</t>
-  </si>
-  <si>
-    <t>燕麦科技</t>
-  </si>
-  <si>
-    <t>688313.SH</t>
-  </si>
-  <si>
-    <t>仕佳光子-U</t>
-  </si>
-  <si>
-    <t>688318.SH</t>
-  </si>
-  <si>
-    <t>财富趋势</t>
-  </si>
-  <si>
-    <t>688365.SH</t>
-  </si>
-  <si>
-    <t>光云科技</t>
-  </si>
-  <si>
     <t>688368.SH</t>
   </si>
   <si>
@@ -4358,156 +3896,6 @@
   </si>
   <si>
     <t>致远互联</t>
-  </si>
-  <si>
-    <t>688378.SH</t>
-  </si>
-  <si>
-    <t>奥来德</t>
-  </si>
-  <si>
-    <t>688386.SH</t>
-  </si>
-  <si>
-    <t>泛亚微透</t>
-  </si>
-  <si>
-    <t>688390.SH</t>
-  </si>
-  <si>
-    <t>固德威</t>
-  </si>
-  <si>
-    <t>688396.SH</t>
-  </si>
-  <si>
-    <t>华润微</t>
-  </si>
-  <si>
-    <t>688418.SH</t>
-  </si>
-  <si>
-    <t>震有科技</t>
-  </si>
-  <si>
-    <t>688500.SH</t>
-  </si>
-  <si>
-    <t>慧辰资讯</t>
-  </si>
-  <si>
-    <t>688508.SH</t>
-  </si>
-  <si>
-    <t>芯朋微</t>
-  </si>
-  <si>
-    <t>688519.SH</t>
-  </si>
-  <si>
-    <t>南亚新材</t>
-  </si>
-  <si>
-    <t>688521.SH</t>
-  </si>
-  <si>
-    <t>芯原股份-U</t>
-  </si>
-  <si>
-    <t>688536.SH</t>
-  </si>
-  <si>
-    <t>思瑞浦</t>
-  </si>
-  <si>
-    <t>688555.SH</t>
-  </si>
-  <si>
-    <t>泽达易盛</t>
-  </si>
-  <si>
-    <t>688559.SH</t>
-  </si>
-  <si>
-    <t>海目星</t>
-  </si>
-  <si>
-    <t>688561.SH</t>
-  </si>
-  <si>
-    <t>奇安信-U</t>
-  </si>
-  <si>
-    <t>688568.SH</t>
-  </si>
-  <si>
-    <t>中科星图</t>
-  </si>
-  <si>
-    <t>688579.SH</t>
-  </si>
-  <si>
-    <t>山大地纬</t>
-  </si>
-  <si>
-    <t>688588.SH</t>
-  </si>
-  <si>
-    <t>凌志软件</t>
-  </si>
-  <si>
-    <t>688589.SH</t>
-  </si>
-  <si>
-    <t>力合微</t>
-  </si>
-  <si>
-    <t>688595.SH</t>
-  </si>
-  <si>
-    <t>芯海科技</t>
-  </si>
-  <si>
-    <t>688599.SH</t>
-  </si>
-  <si>
-    <t>天合光能</t>
-  </si>
-  <si>
-    <t>688600.SH</t>
-  </si>
-  <si>
-    <t>皖仪科技</t>
-  </si>
-  <si>
-    <t>688788.SH</t>
-  </si>
-  <si>
-    <t>科思科技</t>
-  </si>
-  <si>
-    <t>688981.SH</t>
-  </si>
-  <si>
-    <t>中芯国际-U</t>
-  </si>
-  <si>
-    <t>900901.SH</t>
-  </si>
-  <si>
-    <t>云赛B股</t>
-  </si>
-  <si>
-    <t>900926.SH</t>
-  </si>
-  <si>
-    <t>宝信B</t>
-  </si>
-  <si>
-    <t>900941.SH</t>
-  </si>
-  <si>
-    <t>东信B股</t>
   </si>
 </sst>
 </file>
@@ -4898,10 +4286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B752"/>
+  <dimension ref="A1:B650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A746" workbookViewId="0">
-      <selection activeCell="B752" sqref="A749:B752"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -10077,824 +9465,8 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="647" spans="1:2">
-      <c r="A647" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B647" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2">
-      <c r="A648" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B648" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2">
-      <c r="A649" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B649" t="s">
-        <v>1297</v>
-      </c>
-    </row>
     <row r="650" spans="1:2">
-      <c r="A650" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B650" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2">
-      <c r="A651" t="s">
-        <v>1300</v>
-      </c>
-      <c r="B651" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2">
-      <c r="A652" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B652" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2">
-      <c r="A653" t="s">
-        <v>1304</v>
-      </c>
-      <c r="B653" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2">
-      <c r="A654" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B654" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2">
-      <c r="A655" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B655" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2">
-      <c r="A656" t="s">
-        <v>1310</v>
-      </c>
-      <c r="B656" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2">
-      <c r="A657" t="s">
-        <v>1312</v>
-      </c>
-      <c r="B657" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2">
-      <c r="A658" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B658" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2">
-      <c r="A659" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B659" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2">
-      <c r="A660" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B660" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2">
-      <c r="A661" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B661" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2">
-      <c r="A662" t="s">
-        <v>1322</v>
-      </c>
-      <c r="B662" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2">
-      <c r="A663" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B663" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2">
-      <c r="A664" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B664" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2">
-      <c r="A665" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B665" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2">
-      <c r="A666" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B666" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2">
-      <c r="A667" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B667" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2">
-      <c r="A668" t="s">
-        <v>1334</v>
-      </c>
-      <c r="B668" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2">
-      <c r="A669" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B669" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2">
-      <c r="A670" t="s">
-        <v>1338</v>
-      </c>
-      <c r="B670" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2">
-      <c r="A671" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B671" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2">
-      <c r="A672" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B672" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2">
-      <c r="A673" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B673" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2">
-      <c r="A674" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B674" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2">
-      <c r="A675" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B675" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2">
-      <c r="A676" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B676" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2">
-      <c r="A677" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B677" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2">
-      <c r="A678" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B678" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2">
-      <c r="A679" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B679" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2">
-      <c r="A680" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B680" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2">
-      <c r="A681" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B681" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2">
-      <c r="A682" t="s">
-        <v>1362</v>
-      </c>
-      <c r="B682" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2">
-      <c r="A683" t="s">
-        <v>1364</v>
-      </c>
-      <c r="B683" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2">
-      <c r="A684" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B684" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2">
-      <c r="A685" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B685" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2">
-      <c r="A686" t="s">
-        <v>1370</v>
-      </c>
-      <c r="B686" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2">
-      <c r="A687" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B687" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2">
-      <c r="A688" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B688" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2">
-      <c r="A689" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B689" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2">
-      <c r="A690" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B690" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2">
-      <c r="A691" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B691" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2">
-      <c r="A692" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B692" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2">
-      <c r="A693" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B693" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2">
-      <c r="A694" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B694" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2">
-      <c r="A695" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B695" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2">
-      <c r="A696" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B696" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2">
-      <c r="A697" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B697" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2">
-      <c r="A698" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B698" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2">
-      <c r="A699" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B699" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2">
-      <c r="A700" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B700" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2">
-      <c r="A701" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B701" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2">
-      <c r="A702" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B702" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2">
-      <c r="A703" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B703" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2">
-      <c r="A704" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B704" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2">
-      <c r="A705" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B705" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2">
-      <c r="A706" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B706" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2">
-      <c r="A707" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B707" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2">
-      <c r="A708" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B708" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2">
-      <c r="A709" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B709" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2">
-      <c r="A710" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B710" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2">
-      <c r="A711" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B711" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2">
-      <c r="A712" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B712" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2">
-      <c r="A713" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B713" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="714" spans="1:2">
-      <c r="A714" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B714" t="s">
-        <v>1427</v>
-      </c>
-    </row>
-    <row r="715" spans="1:2">
-      <c r="A715" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B715" t="s">
-        <v>1429</v>
-      </c>
-    </row>
-    <row r="716" spans="1:2">
-      <c r="A716" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B716" t="s">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="717" spans="1:2">
-      <c r="A717" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B717" t="s">
-        <v>1433</v>
-      </c>
-    </row>
-    <row r="718" spans="1:2">
-      <c r="A718" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B718" t="s">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="719" spans="1:2">
-      <c r="A719" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B719" t="s">
-        <v>1437</v>
-      </c>
-    </row>
-    <row r="720" spans="1:2">
-      <c r="A720" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B720" t="s">
-        <v>1439</v>
-      </c>
-    </row>
-    <row r="721" spans="1:2">
-      <c r="A721" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B721" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="722" spans="1:2">
-      <c r="A722" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B722" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="723" spans="1:2">
-      <c r="A723" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B723" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="724" spans="1:2">
-      <c r="A724" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B724" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="725" spans="1:2">
-      <c r="A725" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B725" t="s">
-        <v>1449</v>
-      </c>
-    </row>
-    <row r="726" spans="1:2">
-      <c r="A726" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B726" t="s">
-        <v>1451</v>
-      </c>
-    </row>
-    <row r="727" spans="1:2">
-      <c r="A727" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B727" t="s">
-        <v>1453</v>
-      </c>
-    </row>
-    <row r="728" spans="1:2">
-      <c r="A728" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B728" t="s">
-        <v>1455</v>
-      </c>
-    </row>
-    <row r="729" spans="1:2">
-      <c r="A729" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B729" t="s">
-        <v>1457</v>
-      </c>
-    </row>
-    <row r="730" spans="1:2">
-      <c r="A730" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B730" t="s">
-        <v>1459</v>
-      </c>
-    </row>
-    <row r="731" spans="1:2">
-      <c r="A731" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B731" t="s">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="732" spans="1:2">
-      <c r="A732" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B732" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="733" spans="1:2">
-      <c r="A733" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B733" t="s">
-        <v>1465</v>
-      </c>
-    </row>
-    <row r="734" spans="1:2">
-      <c r="A734" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B734" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="735" spans="1:2">
-      <c r="A735" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B735" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="736" spans="1:2">
-      <c r="A736" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B736" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="737" spans="1:2">
-      <c r="A737" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B737" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="738" spans="1:2">
-      <c r="A738" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B738" t="s">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="739" spans="1:2">
-      <c r="A739" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B739" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="740" spans="1:2">
-      <c r="A740" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B740" t="s">
-        <v>1479</v>
-      </c>
-    </row>
-    <row r="741" spans="1:2">
-      <c r="A741" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B741" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="742" spans="1:2">
-      <c r="A742" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B742" t="s">
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="743" spans="1:2">
-      <c r="A743" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B743" t="s">
-        <v>1485</v>
-      </c>
-    </row>
-    <row r="744" spans="1:2">
-      <c r="A744" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B744" t="s">
-        <v>1487</v>
-      </c>
-    </row>
-    <row r="745" spans="1:2">
-      <c r="A745" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B745" t="s">
-        <v>1489</v>
-      </c>
-    </row>
-    <row r="746" spans="1:2">
-      <c r="A746" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="747" spans="1:2">
-      <c r="A747" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="748" spans="1:2">
-      <c r="A748" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1495</v>
-      </c>
-    </row>
-    <row r="752" spans="1:2">
-      <c r="A752" s="1"/>
+      <c r="A650" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
